--- a/OUTPUT-FILES/NORMS/TODC_final_gr1_12_10.28.21_fornorms/ssl_sum-raw-ss-lookup-tabbed-age.xlsx
+++ b/OUTPUT-FILES/NORMS/TODC_final_gr1_12_10.28.21_fornorms/ssl_sum-raw-ss-lookup-tabbed-age.xlsx
@@ -370,7 +370,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -390,255 +390,255 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>130</v>
@@ -646,7 +646,7 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>130</v>
@@ -654,7 +654,7 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>130</v>
@@ -662,7 +662,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>130</v>
@@ -670,7 +670,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -678,7 +678,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -686,7 +686,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>130</v>
@@ -694,7 +694,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>130</v>
@@ -702,7 +702,7 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>130</v>
@@ -710,7 +710,7 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>130</v>
@@ -718,9 +718,17 @@
     </row>
     <row r="43">
       <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
         <v>42</v>
       </c>
-      <c r="B43">
+      <c r="B44">
         <v>130</v>
       </c>
     </row>
@@ -731,7 +739,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -751,23 +759,23 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>68</v>
@@ -775,95 +783,95 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>100</v>
@@ -871,7 +879,7 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>102</v>
@@ -879,7 +887,7 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>104</v>
@@ -887,143 +895,143 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>130</v>
@@ -1031,7 +1039,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -1039,7 +1047,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -1047,7 +1055,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>130</v>
@@ -1055,7 +1063,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>130</v>
@@ -1063,7 +1071,7 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>130</v>
@@ -1071,7 +1079,7 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>130</v>
@@ -1079,9 +1087,17 @@
     </row>
     <row r="43">
       <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
         <v>42</v>
       </c>
-      <c r="B43">
+      <c r="B44">
         <v>130</v>
       </c>
     </row>
@@ -1092,7 +1108,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1112,143 +1128,143 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>105</v>
@@ -1256,7 +1272,7 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>107</v>
@@ -1264,135 +1280,135 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -1400,7 +1416,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -1408,7 +1424,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>130</v>
@@ -1416,7 +1432,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>130</v>
@@ -1424,7 +1440,7 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>130</v>
@@ -1432,7 +1448,7 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>130</v>
@@ -1440,9 +1456,17 @@
     </row>
     <row r="43">
       <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
         <v>42</v>
       </c>
-      <c r="B43">
+      <c r="B44">
         <v>130</v>
       </c>
     </row>
@@ -1453,7 +1477,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1473,23 +1497,23 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>67</v>
@@ -1497,87 +1521,87 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>97</v>
@@ -1585,7 +1609,7 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>99</v>
@@ -1593,7 +1617,7 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>101</v>
@@ -1601,7 +1625,7 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>103</v>
@@ -1609,7 +1633,7 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>105</v>
@@ -1617,15 +1641,15 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
         <v>108</v>
@@ -1633,7 +1657,7 @@
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
         <v>110</v>
@@ -1641,15 +1665,15 @@
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>113</v>
@@ -1657,95 +1681,95 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>129</v>
@@ -1753,7 +1777,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -1761,7 +1785,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -1769,7 +1793,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>130</v>
@@ -1777,7 +1801,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>130</v>
@@ -1785,7 +1809,7 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>130</v>
@@ -1793,7 +1817,7 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>130</v>
@@ -1801,9 +1825,17 @@
     </row>
     <row r="43">
       <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
         <v>42</v>
       </c>
-      <c r="B43">
+      <c r="B44">
         <v>130</v>
       </c>
     </row>
@@ -1814,7 +1846,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1834,23 +1866,23 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>67</v>
@@ -1858,119 +1890,119 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>104</v>
@@ -1978,7 +2010,7 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>106</v>
@@ -1986,7 +2018,7 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
         <v>108</v>
@@ -1994,15 +2026,15 @@
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>111</v>
@@ -2010,15 +2042,15 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
         <v>114</v>
@@ -2026,71 +2058,71 @@
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>126</v>
@@ -2098,7 +2130,7 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>127</v>
@@ -2106,15 +2138,15 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -2122,7 +2154,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -2130,7 +2162,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>130</v>
@@ -2138,7 +2170,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>130</v>
@@ -2146,7 +2178,7 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>130</v>
@@ -2154,7 +2186,7 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>130</v>
@@ -2162,9 +2194,17 @@
     </row>
     <row r="43">
       <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
         <v>42</v>
       </c>
-      <c r="B43">
+      <c r="B44">
         <v>130</v>
       </c>
     </row>
@@ -2175,7 +2215,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2195,23 +2235,23 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>67</v>
@@ -2219,87 +2259,87 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>96</v>
@@ -2307,7 +2347,7 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>98</v>
@@ -2315,7 +2355,7 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>100</v>
@@ -2323,7 +2363,7 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>102</v>
@@ -2331,7 +2371,7 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>104</v>
@@ -2339,7 +2379,7 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>106</v>
@@ -2347,7 +2387,7 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
         <v>107</v>
@@ -2355,7 +2395,7 @@
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
         <v>109</v>
@@ -2363,15 +2403,15 @@
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>112</v>
@@ -2379,15 +2419,15 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
         <v>115</v>
@@ -2395,23 +2435,23 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>119</v>
@@ -2419,55 +2459,55 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>128</v>
@@ -2475,7 +2515,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>129</v>
@@ -2483,7 +2523,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -2491,7 +2531,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>130</v>
@@ -2499,7 +2539,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>130</v>
@@ -2507,7 +2547,7 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>130</v>
@@ -2515,7 +2555,7 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>130</v>
@@ -2523,9 +2563,17 @@
     </row>
     <row r="43">
       <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
         <v>42</v>
       </c>
-      <c r="B43">
+      <c r="B44">
         <v>130</v>
       </c>
     </row>
@@ -2536,7 +2584,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2556,23 +2604,23 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>67</v>
@@ -2580,95 +2628,95 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>98</v>
@@ -2676,7 +2724,7 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>100</v>
@@ -2684,7 +2732,7 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>102</v>
@@ -2692,15 +2740,15 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>105</v>
@@ -2708,7 +2756,7 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
         <v>107</v>
@@ -2716,15 +2764,15 @@
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>110</v>
@@ -2732,15 +2780,15 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
         <v>113</v>
@@ -2748,79 +2796,79 @@
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>126</v>
@@ -2828,23 +2876,23 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -2852,7 +2900,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>130</v>
@@ -2860,7 +2908,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>130</v>
@@ -2868,7 +2916,7 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>130</v>
@@ -2876,7 +2924,7 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>130</v>
@@ -2884,9 +2932,17 @@
     </row>
     <row r="43">
       <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
         <v>42</v>
       </c>
-      <c r="B43">
+      <c r="B44">
         <v>130</v>
       </c>
     </row>
@@ -2897,7 +2953,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2917,23 +2973,23 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>67</v>
@@ -2941,119 +2997,119 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>103</v>
@@ -3061,7 +3117,7 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>105</v>
@@ -3069,15 +3125,15 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
         <v>108</v>
@@ -3085,7 +3141,7 @@
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>110</v>
@@ -3093,103 +3149,103 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>127</v>
@@ -3197,7 +3253,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>128</v>
@@ -3205,7 +3261,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>129</v>
@@ -3213,7 +3269,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>130</v>
@@ -3221,7 +3277,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>130</v>
@@ -3229,7 +3285,7 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>130</v>
@@ -3237,7 +3293,7 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>130</v>
@@ -3245,9 +3301,17 @@
     </row>
     <row r="43">
       <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
         <v>42</v>
       </c>
-      <c r="B43">
+      <c r="B44">
         <v>130</v>
       </c>
     </row>
@@ -3258,7 +3322,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3278,23 +3342,23 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>67</v>
@@ -3302,103 +3366,103 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>99</v>
@@ -3406,7 +3470,7 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>101</v>
@@ -3414,7 +3478,7 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>103</v>
@@ -3422,159 +3486,159 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>130</v>
@@ -3582,7 +3646,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>130</v>
@@ -3590,7 +3654,7 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>130</v>
@@ -3598,7 +3662,7 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>130</v>
@@ -3606,9 +3670,17 @@
     </row>
     <row r="43">
       <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
         <v>42</v>
       </c>
-      <c r="B43">
+      <c r="B44">
         <v>130</v>
       </c>
     </row>
@@ -3619,7 +3691,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3639,23 +3711,23 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>67</v>
@@ -3663,287 +3735,287 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>130</v>
@@ -3951,7 +4023,7 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>130</v>
@@ -3959,7 +4031,7 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>130</v>
@@ -3967,9 +4039,17 @@
     </row>
     <row r="43">
       <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
         <v>42</v>
       </c>
-      <c r="B43">
+      <c r="B44">
         <v>130</v>
       </c>
     </row>
@@ -3980,7 +4060,7 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4000,319 +4080,319 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>130</v>
@@ -4320,7 +4400,7 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>130</v>
@@ -4328,9 +4408,17 @@
     </row>
     <row r="43">
       <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
         <v>42</v>
       </c>
-      <c r="B43">
+      <c r="B44">
         <v>130</v>
       </c>
     </row>
@@ -4341,7 +4429,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4361,255 +4449,255 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>130</v>
@@ -4617,7 +4705,7 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>130</v>
@@ -4625,7 +4713,7 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>130</v>
@@ -4633,7 +4721,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>130</v>
@@ -4641,7 +4729,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -4649,7 +4737,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -4657,7 +4745,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>130</v>
@@ -4665,7 +4753,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>130</v>
@@ -4673,7 +4761,7 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>130</v>
@@ -4681,7 +4769,7 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>130</v>
@@ -4689,9 +4777,17 @@
     </row>
     <row r="43">
       <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
         <v>42</v>
       </c>
-      <c r="B43">
+      <c r="B44">
         <v>130</v>
       </c>
     </row>
@@ -4702,7 +4798,7 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4722,23 +4818,23 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>66</v>
@@ -4746,313 +4842,321 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
         <v>42</v>
       </c>
-      <c r="B43">
+      <c r="B44">
         <v>130</v>
       </c>
     </row>
@@ -5063,7 +5167,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5083,263 +5187,263 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>130</v>
@@ -5347,7 +5451,7 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>130</v>
@@ -5355,7 +5459,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>130</v>
@@ -5363,7 +5467,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -5371,7 +5475,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -5379,7 +5483,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>130</v>
@@ -5387,7 +5491,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>130</v>
@@ -5395,7 +5499,7 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>130</v>
@@ -5403,7 +5507,7 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>130</v>
@@ -5411,9 +5515,17 @@
     </row>
     <row r="43">
       <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
         <v>42</v>
       </c>
-      <c r="B43">
+      <c r="B44">
         <v>130</v>
       </c>
     </row>
@@ -5424,7 +5536,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5444,263 +5556,263 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>130</v>
@@ -5708,7 +5820,7 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>130</v>
@@ -5716,7 +5828,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>130</v>
@@ -5724,7 +5836,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -5732,7 +5844,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -5740,7 +5852,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>130</v>
@@ -5748,7 +5860,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>130</v>
@@ -5756,7 +5868,7 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>130</v>
@@ -5764,7 +5876,7 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>130</v>
@@ -5772,9 +5884,17 @@
     </row>
     <row r="43">
       <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
         <v>42</v>
       </c>
-      <c r="B43">
+      <c r="B44">
         <v>130</v>
       </c>
     </row>
@@ -5785,7 +5905,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5805,263 +5925,263 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>130</v>
@@ -6069,7 +6189,7 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>130</v>
@@ -6077,7 +6197,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>130</v>
@@ -6085,7 +6205,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -6093,7 +6213,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -6101,7 +6221,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>130</v>
@@ -6109,7 +6229,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>130</v>
@@ -6117,7 +6237,7 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>130</v>
@@ -6125,7 +6245,7 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>130</v>
@@ -6133,9 +6253,17 @@
     </row>
     <row r="43">
       <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
         <v>42</v>
       </c>
-      <c r="B43">
+      <c r="B44">
         <v>130</v>
       </c>
     </row>
@@ -6146,7 +6274,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6166,263 +6294,263 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>130</v>
@@ -6430,7 +6558,7 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>130</v>
@@ -6438,7 +6566,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>130</v>
@@ -6446,7 +6574,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -6454,7 +6582,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -6462,7 +6590,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>130</v>
@@ -6470,7 +6598,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>130</v>
@@ -6478,7 +6606,7 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>130</v>
@@ -6486,7 +6614,7 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>130</v>
@@ -6494,9 +6622,17 @@
     </row>
     <row r="43">
       <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
         <v>42</v>
       </c>
-      <c r="B43">
+      <c r="B44">
         <v>130</v>
       </c>
     </row>
@@ -6507,7 +6643,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6527,23 +6663,23 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>68</v>
@@ -6551,247 +6687,247 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>130</v>
@@ -6799,7 +6935,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>130</v>
@@ -6807,7 +6943,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -6815,7 +6951,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -6823,7 +6959,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>130</v>
@@ -6831,7 +6967,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>130</v>
@@ -6839,7 +6975,7 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>130</v>
@@ -6847,7 +6983,7 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>130</v>
@@ -6855,9 +6991,17 @@
     </row>
     <row r="43">
       <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
         <v>42</v>
       </c>
-      <c r="B43">
+      <c r="B44">
         <v>130</v>
       </c>
     </row>
@@ -6868,7 +7012,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6888,23 +7032,23 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>68</v>
@@ -6912,247 +7056,247 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>130</v>
@@ -7160,7 +7304,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>130</v>
@@ -7168,7 +7312,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -7176,7 +7320,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -7184,7 +7328,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>130</v>
@@ -7192,7 +7336,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>130</v>
@@ -7200,7 +7344,7 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>130</v>
@@ -7208,7 +7352,7 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>130</v>
@@ -7216,9 +7360,17 @@
     </row>
     <row r="43">
       <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
         <v>42</v>
       </c>
-      <c r="B43">
+      <c r="B44">
         <v>130</v>
       </c>
     </row>
@@ -7229,7 +7381,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7249,23 +7401,23 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>68</v>
@@ -7273,255 +7425,255 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>130</v>
@@ -7529,7 +7681,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -7537,7 +7689,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -7545,7 +7697,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>130</v>
@@ -7553,7 +7705,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>130</v>
@@ -7561,7 +7713,7 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>130</v>
@@ -7569,7 +7721,7 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>130</v>
@@ -7577,9 +7729,17 @@
     </row>
     <row r="43">
       <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
         <v>42</v>
       </c>
-      <c r="B43">
+      <c r="B44">
         <v>130</v>
       </c>
     </row>

--- a/OUTPUT-FILES/NORMS/TODC_final_gr1_12_10.28.21_fornorms/ssl_sum-raw-ss-lookup-tabbed-age.xlsx
+++ b/OUTPUT-FILES/NORMS/TODC_final_gr1_12_10.28.21_fornorms/ssl_sum-raw-ss-lookup-tabbed-age.xlsx
@@ -393,7 +393,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3">
@@ -401,7 +401,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
@@ -409,7 +409,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
@@ -417,7 +417,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
@@ -425,7 +425,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7">
@@ -433,7 +433,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8">
@@ -441,7 +441,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9">
@@ -449,7 +449,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10">
@@ -457,7 +457,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11">
@@ -465,7 +465,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12">
@@ -473,7 +473,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13">
@@ -481,7 +481,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14">
@@ -489,7 +489,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15">
@@ -497,7 +497,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16">
@@ -505,7 +505,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17">
@@ -513,7 +513,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18">
@@ -521,7 +521,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19">
@@ -529,7 +529,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20">
@@ -537,7 +537,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21">
@@ -545,7 +545,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22">
@@ -553,7 +553,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23">
@@ -561,7 +561,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24">
@@ -569,7 +569,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25">
@@ -577,7 +577,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26">
@@ -585,7 +585,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27">
@@ -593,7 +593,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>121</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28">
@@ -601,7 +601,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29">
@@ -609,7 +609,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30">
@@ -617,7 +617,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31">
@@ -625,7 +625,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32">
@@ -633,7 +633,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33">
@@ -762,7 +762,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
@@ -770,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
@@ -778,7 +778,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
@@ -786,7 +786,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6">
@@ -794,7 +794,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7">
@@ -802,7 +802,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8">
@@ -810,7 +810,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9">
@@ -818,7 +818,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10">
@@ -826,7 +826,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11">
@@ -850,7 +850,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14">
@@ -858,7 +858,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15">
@@ -866,7 +866,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16">
@@ -874,7 +874,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17">
@@ -882,7 +882,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18">
@@ -890,7 +890,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19">
@@ -898,7 +898,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20">
@@ -906,7 +906,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21">
@@ -914,7 +914,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22">
@@ -922,7 +922,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23">
@@ -930,7 +930,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24">
@@ -938,7 +938,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25">
@@ -946,7 +946,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26">
@@ -954,7 +954,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27">
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28">
@@ -970,7 +970,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29">
@@ -986,7 +986,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31">
@@ -994,7 +994,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32">
@@ -1010,7 +1010,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="34">
@@ -1018,7 +1018,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35">
@@ -1026,7 +1026,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="36">
@@ -1034,7 +1034,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37">
@@ -1131,7 +1131,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
@@ -1139,7 +1139,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
@@ -1147,7 +1147,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5">
@@ -1155,7 +1155,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6">
@@ -1171,7 +1171,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8">
@@ -1179,7 +1179,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9">
@@ -1187,7 +1187,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10">
@@ -1195,7 +1195,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11">
@@ -1203,7 +1203,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12">
@@ -1211,7 +1211,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13">
@@ -1219,7 +1219,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14">
@@ -1227,7 +1227,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15">
@@ -1235,7 +1235,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16">
@@ -1243,7 +1243,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17">
@@ -1251,7 +1251,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18">
@@ -1259,7 +1259,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19">
@@ -1267,7 +1267,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20">
@@ -1275,7 +1275,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21">
@@ -1283,7 +1283,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22">
@@ -1291,7 +1291,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23">
@@ -1299,7 +1299,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24">
@@ -1307,7 +1307,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25">
@@ -1315,7 +1315,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26">
@@ -1323,7 +1323,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27">
@@ -1331,7 +1331,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28">
@@ -1339,7 +1339,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29">
@@ -1347,7 +1347,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30">
@@ -1355,7 +1355,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31">
@@ -1363,7 +1363,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32">
@@ -1371,7 +1371,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="33">
@@ -1379,7 +1379,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="34">
@@ -1387,7 +1387,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="35">
@@ -1395,7 +1395,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="36">
@@ -1403,7 +1403,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="37">
@@ -1411,7 +1411,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="38">
@@ -1500,7 +1500,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
@@ -1508,7 +1508,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
@@ -1516,7 +1516,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5">
@@ -1524,7 +1524,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6">
@@ -1540,7 +1540,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8">
@@ -1548,7 +1548,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9">
@@ -1556,7 +1556,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10">
@@ -1564,7 +1564,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11">
@@ -1588,7 +1588,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14">
@@ -1596,7 +1596,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15">
@@ -1604,7 +1604,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16">
@@ -1612,7 +1612,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17">
@@ -1620,7 +1620,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18">
@@ -1628,7 +1628,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19">
@@ -1636,7 +1636,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20">
@@ -1644,7 +1644,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21">
@@ -1652,7 +1652,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22">
@@ -1660,7 +1660,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23">
@@ -1668,7 +1668,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24">
@@ -1676,7 +1676,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25">
@@ -1684,7 +1684,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26">
@@ -1692,7 +1692,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27">
@@ -1700,7 +1700,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28">
@@ -1708,7 +1708,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29">
@@ -1716,7 +1716,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30">
@@ -1724,7 +1724,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31">
@@ -1732,7 +1732,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32">
@@ -1740,7 +1740,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="33">
@@ -1748,7 +1748,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34">
@@ -1756,7 +1756,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="35">
@@ -1764,7 +1764,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="36">
@@ -1772,7 +1772,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="37">
@@ -1780,7 +1780,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="38">
@@ -1788,7 +1788,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="39">
@@ -1869,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
@@ -1877,7 +1877,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
@@ -1885,7 +1885,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5">
@@ -1893,7 +1893,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6">
@@ -1909,7 +1909,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8">
@@ -1917,7 +1917,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9">
@@ -1925,7 +1925,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10">
@@ -1933,7 +1933,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11">
@@ -1949,7 +1949,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13">
@@ -1957,7 +1957,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14">
@@ -1965,7 +1965,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15">
@@ -1973,7 +1973,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16">
@@ -1981,7 +1981,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17">
@@ -1989,7 +1989,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18">
@@ -1997,7 +1997,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19">
@@ -2005,7 +2005,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20">
@@ -2013,7 +2013,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21">
@@ -2021,7 +2021,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22">
@@ -2029,7 +2029,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23">
@@ -2037,7 +2037,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24">
@@ -2045,7 +2045,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25">
@@ -2053,7 +2053,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26">
@@ -2061,7 +2061,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27">
@@ -2069,7 +2069,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28">
@@ -2077,7 +2077,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29">
@@ -2085,7 +2085,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30">
@@ -2093,7 +2093,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31">
@@ -2101,7 +2101,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32">
@@ -2109,7 +2109,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33">
@@ -2117,7 +2117,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34">
@@ -2125,7 +2125,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="35">
@@ -2133,7 +2133,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="36">
@@ -2141,7 +2141,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="37">
@@ -2149,7 +2149,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38">
@@ -2157,7 +2157,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="39">
@@ -2165,7 +2165,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="40">
@@ -2238,7 +2238,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
@@ -2246,7 +2246,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
@@ -2254,7 +2254,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5">
@@ -2262,7 +2262,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6">
@@ -2278,7 +2278,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8">
@@ -2286,7 +2286,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9">
@@ -2294,7 +2294,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10">
@@ -2302,7 +2302,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11">
@@ -2310,7 +2310,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12">
@@ -2326,7 +2326,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14">
@@ -2334,7 +2334,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15">
@@ -2342,7 +2342,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16">
@@ -2350,7 +2350,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17">
@@ -2358,7 +2358,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18">
@@ -2366,7 +2366,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19">
@@ -2374,7 +2374,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20">
@@ -2382,7 +2382,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21">
@@ -2390,7 +2390,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22">
@@ -2398,7 +2398,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23">
@@ -2406,7 +2406,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24">
@@ -2414,7 +2414,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25">
@@ -2422,7 +2422,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26">
@@ -2430,7 +2430,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27">
@@ -2438,7 +2438,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28">
@@ -2446,7 +2446,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29">
@@ -2454,7 +2454,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30">
@@ -2462,7 +2462,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31">
@@ -2470,7 +2470,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32">
@@ -2478,7 +2478,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33">
@@ -2486,7 +2486,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34">
@@ -2494,7 +2494,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35">
@@ -2502,7 +2502,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="36">
@@ -2510,7 +2510,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37">
@@ -2518,7 +2518,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38">
@@ -2526,7 +2526,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="39">
@@ -2534,7 +2534,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="40">
@@ -2607,7 +2607,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
@@ -2615,7 +2615,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
@@ -2623,7 +2623,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5">
@@ -2631,7 +2631,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6">
@@ -2639,7 +2639,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7">
@@ -2647,7 +2647,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8">
@@ -2655,7 +2655,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9">
@@ -2663,7 +2663,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10">
@@ -2671,7 +2671,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11">
@@ -2695,7 +2695,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14">
@@ -2703,7 +2703,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15">
@@ -2711,7 +2711,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16">
@@ -2719,7 +2719,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17">
@@ -2727,7 +2727,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18">
@@ -2735,7 +2735,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19">
@@ -2743,7 +2743,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20">
@@ -2751,7 +2751,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21">
@@ -2759,7 +2759,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22">
@@ -2767,7 +2767,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23">
@@ -2775,7 +2775,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24">
@@ -2783,7 +2783,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25">
@@ -2791,7 +2791,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26">
@@ -2799,7 +2799,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27">
@@ -2807,7 +2807,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28">
@@ -2815,7 +2815,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29">
@@ -2823,7 +2823,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30">
@@ -2831,7 +2831,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31">
@@ -2839,7 +2839,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32">
@@ -2847,7 +2847,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33">
@@ -2855,7 +2855,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34">
@@ -2863,7 +2863,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35">
@@ -2871,7 +2871,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="36">
@@ -2879,7 +2879,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37">
@@ -2887,7 +2887,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38">
@@ -2895,7 +2895,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="39">
@@ -2903,7 +2903,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40">
@@ -2911,7 +2911,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41">
@@ -2976,7 +2976,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
@@ -2984,7 +2984,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
@@ -2992,7 +2992,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5">
@@ -3000,7 +3000,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6">
@@ -3016,7 +3016,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8">
@@ -3024,7 +3024,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9">
@@ -3032,7 +3032,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10">
@@ -3040,7 +3040,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11">
@@ -3048,7 +3048,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12">
@@ -3064,7 +3064,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14">
@@ -3072,7 +3072,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15">
@@ -3080,7 +3080,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16">
@@ -3088,7 +3088,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17">
@@ -3096,7 +3096,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18">
@@ -3104,7 +3104,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19">
@@ -3112,7 +3112,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20">
@@ -3120,7 +3120,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21">
@@ -3128,7 +3128,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22">
@@ -3136,7 +3136,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23">
@@ -3144,7 +3144,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24">
@@ -3152,7 +3152,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25">
@@ -3160,7 +3160,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26">
@@ -3168,7 +3168,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27">
@@ -3176,7 +3176,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28">
@@ -3184,7 +3184,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29">
@@ -3192,7 +3192,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30">
@@ -3200,7 +3200,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31">
@@ -3208,7 +3208,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32">
@@ -3216,7 +3216,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33">
@@ -3224,7 +3224,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34">
@@ -3232,7 +3232,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35">
@@ -3240,7 +3240,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36">
@@ -3248,7 +3248,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37">
@@ -3256,7 +3256,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38">
@@ -3264,7 +3264,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="39">
@@ -3272,7 +3272,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40">
@@ -3280,7 +3280,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41">
@@ -3345,7 +3345,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
@@ -3353,7 +3353,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
@@ -3361,7 +3361,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5">
@@ -3369,7 +3369,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6">
@@ -3385,7 +3385,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8">
@@ -3393,7 +3393,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9">
@@ -3401,7 +3401,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10">
@@ -3409,7 +3409,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11">
@@ -3417,7 +3417,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12">
@@ -3441,7 +3441,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15">
@@ -3449,7 +3449,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16">
@@ -3457,7 +3457,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17">
@@ -3465,7 +3465,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18">
@@ -3473,7 +3473,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19">
@@ -3481,7 +3481,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20">
@@ -3489,7 +3489,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21">
@@ -3497,7 +3497,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22">
@@ -3505,7 +3505,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23">
@@ -3513,7 +3513,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24">
@@ -3521,7 +3521,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25">
@@ -3529,7 +3529,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26">
@@ -3537,7 +3537,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27">
@@ -3545,7 +3545,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28">
@@ -3553,7 +3553,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29">
@@ -3561,7 +3561,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30">
@@ -3569,7 +3569,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31">
@@ -3577,7 +3577,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32">
@@ -3585,7 +3585,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33">
@@ -3593,7 +3593,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34">
@@ -3601,7 +3601,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35">
@@ -3609,7 +3609,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36">
@@ -3617,7 +3617,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37">
@@ -3625,7 +3625,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="38">
@@ -3633,7 +3633,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="39">
@@ -3641,7 +3641,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="40">
@@ -3649,7 +3649,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="41">
@@ -3657,7 +3657,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="42">
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
@@ -3722,7 +3722,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
@@ -3730,7 +3730,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5">
@@ -3738,7 +3738,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6">
@@ -3754,7 +3754,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8">
@@ -3762,7 +3762,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9">
@@ -3770,7 +3770,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10">
@@ -3778,7 +3778,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11">
@@ -3786,7 +3786,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12">
@@ -3794,7 +3794,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13">
@@ -3802,7 +3802,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14">
@@ -3826,7 +3826,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17">
@@ -3834,7 +3834,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18">
@@ -3842,7 +3842,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19">
@@ -3850,7 +3850,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20">
@@ -3858,7 +3858,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21">
@@ -3866,7 +3866,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22">
@@ -3874,7 +3874,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23">
@@ -3882,7 +3882,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24">
@@ -3890,7 +3890,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25">
@@ -3898,7 +3898,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26">
@@ -3906,7 +3906,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27">
@@ -3914,7 +3914,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28">
@@ -3922,7 +3922,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29">
@@ -3930,7 +3930,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30">
@@ -3938,7 +3938,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31">
@@ -3946,7 +3946,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32">
@@ -3954,7 +3954,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33">
@@ -3962,7 +3962,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34">
@@ -3978,7 +3978,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36">
@@ -3986,7 +3986,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37">
@@ -3994,7 +3994,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="38">
@@ -4002,7 +4002,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="39">
@@ -4010,7 +4010,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="40">
@@ -4018,7 +4018,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="41">
@@ -4026,7 +4026,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="42">
@@ -4083,7 +4083,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
@@ -4091,7 +4091,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
@@ -4099,7 +4099,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5">
@@ -4107,7 +4107,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6">
@@ -4123,7 +4123,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8">
@@ -4131,7 +4131,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9">
@@ -4139,7 +4139,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10">
@@ -4147,7 +4147,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11">
@@ -4155,7 +4155,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12">
@@ -4163,7 +4163,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13">
@@ -4171,7 +4171,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14">
@@ -4179,7 +4179,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15">
@@ -4187,7 +4187,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16">
@@ -4219,7 +4219,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20">
@@ -4243,7 +4243,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23">
@@ -4299,7 +4299,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30">
@@ -4307,7 +4307,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31">
@@ -4339,7 +4339,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35">
@@ -4347,7 +4347,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36">
@@ -4355,7 +4355,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37">
@@ -4395,7 +4395,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="42">
@@ -4452,7 +4452,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3">
@@ -4460,7 +4460,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
@@ -4468,7 +4468,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
@@ -4476,7 +4476,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
@@ -4484,7 +4484,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7">
@@ -4492,7 +4492,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8">
@@ -4500,7 +4500,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9">
@@ -4508,7 +4508,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10">
@@ -4516,7 +4516,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11">
@@ -4524,7 +4524,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12">
@@ -4532,7 +4532,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13">
@@ -4540,7 +4540,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14">
@@ -4548,7 +4548,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15">
@@ -4556,7 +4556,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16">
@@ -4564,7 +4564,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17">
@@ -4572,7 +4572,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18">
@@ -4580,7 +4580,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19">
@@ -4588,7 +4588,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20">
@@ -4596,7 +4596,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21">
@@ -4604,7 +4604,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22">
@@ -4612,7 +4612,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23">
@@ -4620,7 +4620,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24">
@@ -4628,7 +4628,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25">
@@ -4636,7 +4636,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26">
@@ -4644,7 +4644,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27">
@@ -4652,7 +4652,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28">
@@ -4660,7 +4660,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29">
@@ -4668,7 +4668,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30">
@@ -4676,7 +4676,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31">
@@ -4684,7 +4684,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32">
@@ -4692,7 +4692,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33">
@@ -4821,7 +4821,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
@@ -4829,7 +4829,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
@@ -4837,7 +4837,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5">
@@ -4845,7 +4845,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6">
@@ -4853,7 +4853,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7">
@@ -4861,7 +4861,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8">
@@ -4869,7 +4869,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9">
@@ -4877,7 +4877,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10">
@@ -4885,7 +4885,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11">
@@ -4893,7 +4893,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12">
@@ -4901,7 +4901,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13">
@@ -4909,7 +4909,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14">
@@ -4917,7 +4917,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15">
@@ -4925,7 +4925,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16">
@@ -4933,7 +4933,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17">
@@ -4941,7 +4941,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18">
@@ -4949,7 +4949,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19">
@@ -4957,7 +4957,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20">
@@ -4965,7 +4965,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21">
@@ -4973,7 +4973,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22">
@@ -4981,7 +4981,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23">
@@ -4989,7 +4989,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24">
@@ -4997,7 +4997,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25">
@@ -5005,7 +5005,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26">
@@ -5013,7 +5013,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27">
@@ -5021,7 +5021,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28">
@@ -5029,7 +5029,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29">
@@ -5037,7 +5037,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30">
@@ -5045,7 +5045,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31">
@@ -5053,7 +5053,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32">
@@ -5061,7 +5061,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33">
@@ -5069,7 +5069,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34">
@@ -5077,7 +5077,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35">
@@ -5085,7 +5085,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36">
@@ -5093,7 +5093,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37">
@@ -5101,7 +5101,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="38">
@@ -5109,7 +5109,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="39">
@@ -5117,7 +5117,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40">
@@ -5125,7 +5125,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41">
@@ -5133,7 +5133,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="42">
@@ -5141,7 +5141,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="43">
@@ -5190,7 +5190,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3">
@@ -5198,7 +5198,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
@@ -5206,7 +5206,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
@@ -5222,7 +5222,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7">
@@ -5230,7 +5230,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8">
@@ -5238,7 +5238,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9">
@@ -5246,7 +5246,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10">
@@ -5254,7 +5254,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11">
@@ -5262,7 +5262,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12">
@@ -5270,7 +5270,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13">
@@ -5278,7 +5278,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16">
@@ -5302,7 +5302,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17">
@@ -5310,7 +5310,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18">
@@ -5318,7 +5318,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19">
@@ -5326,7 +5326,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20">
@@ -5334,7 +5334,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21">
@@ -5342,7 +5342,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22">
@@ -5350,7 +5350,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23">
@@ -5358,7 +5358,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24">
@@ -5366,7 +5366,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25">
@@ -5374,7 +5374,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26">
@@ -5382,7 +5382,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27">
@@ -5390,7 +5390,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28">
@@ -5398,7 +5398,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29">
@@ -5406,7 +5406,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30">
@@ -5414,7 +5414,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31">
@@ -5422,7 +5422,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32">
@@ -5430,7 +5430,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33">
@@ -5438,7 +5438,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="34">
@@ -5559,7 +5559,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3">
@@ -5567,7 +5567,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
@@ -5575,7 +5575,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
@@ -5591,7 +5591,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7">
@@ -5599,7 +5599,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8">
@@ -5607,7 +5607,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9">
@@ -5615,7 +5615,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10">
@@ -5623,7 +5623,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11">
@@ -5631,7 +5631,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12">
@@ -5639,7 +5639,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13">
@@ -5655,7 +5655,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15">
@@ -5671,7 +5671,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17">
@@ -5679,7 +5679,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18">
@@ -5687,7 +5687,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19">
@@ -5695,7 +5695,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20">
@@ -5703,7 +5703,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21">
@@ -5711,7 +5711,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22">
@@ -5719,7 +5719,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23">
@@ -5727,7 +5727,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24">
@@ -5735,7 +5735,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25">
@@ -5743,7 +5743,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26">
@@ -5751,7 +5751,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27">
@@ -5759,7 +5759,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28">
@@ -5767,7 +5767,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29">
@@ -5775,7 +5775,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30">
@@ -5783,7 +5783,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31">
@@ -5791,7 +5791,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32">
@@ -5799,7 +5799,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33">
@@ -5807,7 +5807,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="34">
@@ -5928,7 +5928,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3">
@@ -5936,7 +5936,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
@@ -5944,7 +5944,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
@@ -5960,7 +5960,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7">
@@ -5968,7 +5968,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8">
@@ -5976,7 +5976,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9">
@@ -5984,7 +5984,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10">
@@ -5992,7 +5992,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11">
@@ -6000,7 +6000,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12">
@@ -6008,7 +6008,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13">
@@ -6064,7 +6064,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20">
@@ -6072,7 +6072,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21">
@@ -6080,7 +6080,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22">
@@ -6088,7 +6088,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23">
@@ -6096,7 +6096,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24">
@@ -6104,7 +6104,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25">
@@ -6112,7 +6112,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26">
@@ -6120,7 +6120,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27">
@@ -6128,7 +6128,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28">
@@ -6136,7 +6136,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29">
@@ -6144,7 +6144,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30">
@@ -6152,7 +6152,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31">
@@ -6160,7 +6160,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32">
@@ -6168,7 +6168,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33">
@@ -6176,7 +6176,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="34">
@@ -6297,7 +6297,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
@@ -6305,7 +6305,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
@@ -6313,7 +6313,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
@@ -6321,7 +6321,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6">
@@ -6329,7 +6329,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7">
@@ -6337,7 +6337,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8">
@@ -6345,7 +6345,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9">
@@ -6353,7 +6353,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10">
@@ -6361,7 +6361,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11">
@@ -6369,7 +6369,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12">
@@ -6393,7 +6393,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15">
@@ -6449,7 +6449,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22">
@@ -6457,7 +6457,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23">
@@ -6465,7 +6465,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24">
@@ -6473,7 +6473,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25">
@@ -6481,7 +6481,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26">
@@ -6489,7 +6489,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27">
@@ -6497,7 +6497,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28">
@@ -6505,7 +6505,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29">
@@ -6513,7 +6513,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30">
@@ -6521,7 +6521,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31">
@@ -6529,7 +6529,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32">
@@ -6537,7 +6537,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33">
@@ -6545,7 +6545,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="34">
@@ -6666,7 +6666,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
@@ -6674,7 +6674,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
@@ -6682,7 +6682,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
@@ -6690,7 +6690,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6">
@@ -6698,7 +6698,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7">
@@ -6706,7 +6706,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8">
@@ -6714,7 +6714,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9">
@@ -6722,7 +6722,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10">
@@ -6730,7 +6730,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11">
@@ -6738,7 +6738,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12">
@@ -6746,7 +6746,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13">
@@ -6754,7 +6754,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14">
@@ -6770,7 +6770,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16">
@@ -6778,7 +6778,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17">
@@ -6786,7 +6786,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18">
@@ -6794,7 +6794,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19">
@@ -6802,7 +6802,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20">
@@ -6834,7 +6834,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24">
@@ -6850,7 +6850,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26">
@@ -6858,7 +6858,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27">
@@ -6866,7 +6866,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28">
@@ -6874,7 +6874,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29">
@@ -6882,7 +6882,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30">
@@ -6890,7 +6890,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31">
@@ -6898,7 +6898,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32">
@@ -6906,7 +6906,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33">
@@ -6914,7 +6914,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="34">
@@ -6922,7 +6922,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="35">
@@ -7035,7 +7035,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
@@ -7043,7 +7043,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
@@ -7051,7 +7051,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
@@ -7059,7 +7059,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6">
@@ -7075,7 +7075,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8">
@@ -7083,7 +7083,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9">
@@ -7091,7 +7091,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10">
@@ -7099,7 +7099,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11">
@@ -7123,7 +7123,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14">
@@ -7131,7 +7131,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15">
@@ -7139,7 +7139,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16">
@@ -7147,7 +7147,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17">
@@ -7155,7 +7155,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18">
@@ -7163,7 +7163,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19">
@@ -7171,7 +7171,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20">
@@ -7179,7 +7179,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21">
@@ -7187,7 +7187,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22">
@@ -7235,7 +7235,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28">
@@ -7251,7 +7251,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30">
@@ -7267,7 +7267,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32">
@@ -7275,7 +7275,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33">
@@ -7291,7 +7291,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35">
@@ -7404,7 +7404,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
@@ -7412,7 +7412,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
@@ -7420,7 +7420,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
@@ -7428,7 +7428,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6">
@@ -7436,7 +7436,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7">
@@ -7444,7 +7444,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8">
@@ -7452,7 +7452,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9">
@@ -7460,7 +7460,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10">
@@ -7468,7 +7468,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11">
@@ -7476,7 +7476,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12">
@@ -7484,7 +7484,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13">
@@ -7492,7 +7492,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14">
@@ -7500,7 +7500,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15">
@@ -7508,7 +7508,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16">
@@ -7516,7 +7516,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17">
@@ -7524,7 +7524,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18">
@@ -7532,7 +7532,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19">
@@ -7540,7 +7540,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20">
@@ -7548,7 +7548,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21">
@@ -7556,7 +7556,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22">
@@ -7564,7 +7564,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23">
@@ -7580,7 +7580,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25">
@@ -7596,7 +7596,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27">
@@ -7636,7 +7636,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32">
@@ -7660,7 +7660,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="35">
